--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -61,12 +61,12 @@
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -82,64 +82,61 @@
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
@@ -151,37 +148,37 @@
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
   <si>
     <t>corona</t>
@@ -542,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8082191780821918</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -661,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7941176470588235</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,16 +729,16 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,16 +779,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,38 +808,38 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L7">
         <v>27</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7">
-        <v>0.8433420365535248</v>
-      </c>
-      <c r="L7">
-        <v>323</v>
-      </c>
-      <c r="M7">
-        <v>323</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -853,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,16 +879,16 @@
         <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,16 +929,16 @@
         <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5490196078431373</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>282</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>282</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,31 +976,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>0.79375</v>
+      </c>
+      <c r="L10">
+        <v>127</v>
+      </c>
+      <c r="M10">
+        <v>127</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>33</v>
-      </c>
-      <c r="K10">
-        <v>0.8207547169811321</v>
-      </c>
-      <c r="L10">
-        <v>87</v>
-      </c>
-      <c r="M10">
-        <v>87</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5368217054263565</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C11">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4697986577181208</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.7906976744186046</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3111111111111111</v>
+        <v>0.3</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.7875</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.253968253968254</v>
+        <v>0.25</v>
       </c>
       <c r="C15">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1742627345844504</v>
+        <v>0.1849865951742627</v>
       </c>
       <c r="C16">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.765625</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1311,137 +1308,89 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.08333333333333333</v>
+        <v>0.01579626047711154</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>275</v>
+        <v>3053</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>27</v>
+      </c>
+      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7441860465116279</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K17">
-        <v>0.7746478873239436</v>
-      </c>
-      <c r="L17">
-        <v>110</v>
-      </c>
-      <c r="M17">
-        <v>110</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.01289490651192779</v>
-      </c>
-      <c r="C18">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>45</v>
-      </c>
-      <c r="E18">
-        <v>0.11</v>
-      </c>
-      <c r="F18">
-        <v>0.89</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>3062</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18">
-        <v>0.7560975609756098</v>
-      </c>
-      <c r="L18">
-        <v>62</v>
-      </c>
-      <c r="M18">
-        <v>62</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.01263453439401029</v>
-      </c>
-      <c r="C19">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>33</v>
-      </c>
-      <c r="E19">
-        <v>0.18</v>
-      </c>
-      <c r="F19">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2110</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.725</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1453,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1479,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>0.6735294117647059</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1505,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1531,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.6170212765957447</v>
+        <v>0.64</v>
       </c>
       <c r="L23">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1557,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1583,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>0.5983263598326359</v>
+        <v>0.6108786610878661</v>
       </c>
       <c r="L25">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M25">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1609,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>0.5846153846153846</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1635,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1666,16 +1615,16 @@
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>0.550561797752809</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1687,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.54</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1713,21 +1662,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.5294117647058824</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1739,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.4246575342465753</v>
+        <v>0.390625</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1765,12 +1714,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K32">
         <v>0.358974358974359</v>
@@ -1796,27 +1745,53 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.01254705144291092</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K34">
+        <v>0.01037409619616473</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
         <v>53</v>
       </c>
-      <c r="N33">
-        <v>0.75</v>
-      </c>
-      <c r="O33">
-        <v>0.25</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
+      <c r="N34">
+        <v>0.62</v>
+      </c>
+      <c r="O34">
+        <v>0.38</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
         <v>3148</v>
       </c>
     </row>
